--- a/data/trans_orig/Q23_tabaco-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.78038111793169</v>
+        <v>15.74857076027133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.91445470673052</v>
+        <v>15.90290424595384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.00575878286331</v>
+        <v>15.98962673499639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.00688798162862</v>
+        <v>16.00370974335711</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.62487540740569</v>
+        <v>16.65080144566344</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.19026040829663</v>
+        <v>17.1387786819659</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.33328975819386</v>
+        <v>17.31582316808374</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.94728958972595</v>
+        <v>16.98380878308308</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.13229086653454</v>
+        <v>16.1068761014146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.40257870041577</v>
+        <v>16.42763348462246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.61588032354597</v>
+        <v>16.61080275711988</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.42202146448808</v>
+        <v>16.43562687531876</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.23083987980611</v>
+        <v>16.2384694062228</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.57619304665718</v>
+        <v>16.57904694431436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.79829715672299</v>
+        <v>16.77609371411323</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.63600701511683</v>
+        <v>16.66015589610064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.47919720644263</v>
+        <v>17.50697185130733</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.28472399808696</v>
+        <v>18.23038704349037</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.74973946954365</v>
+        <v>18.77692854706591</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.72885996896623</v>
+        <v>17.81855107295596</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.55137642259733</v>
+        <v>16.54781937824623</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.01039443518665</v>
+        <v>17.03611225325723</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.35989318023207</v>
+        <v>17.34973841782826</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.91990058557123</v>
+        <v>16.94563570610694</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.33868960873508</v>
+        <v>16.33550973298315</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.31811021088063</v>
+        <v>16.30467074426905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.24640355986476</v>
+        <v>16.24379151862796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.30311670284983</v>
+        <v>16.27728732220542</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.12440528701494</v>
+        <v>17.12411550196081</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.27860061920547</v>
+        <v>17.26644145654439</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.95453365636666</v>
+        <v>16.92631733763588</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.87323744105324</v>
+        <v>16.85114965846045</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.68954037874528</v>
+        <v>16.70881389659831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.77407505606973</v>
+        <v>16.74744290979906</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.63062088913258</v>
+        <v>16.63984149062128</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.59015735867832</v>
+        <v>16.58847085859219</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.06388043075162</v>
+        <v>17.05776950187645</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.90699992768661</v>
+        <v>16.910772437681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.94308787788981</v>
+        <v>16.96076455294952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.87240815916978</v>
+        <v>16.86986686301403</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.13412251842331</v>
+        <v>18.08982023995778</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.25299251182817</v>
+        <v>18.28806365913097</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.81672164862884</v>
+        <v>17.82654872628897</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.47567079893255</v>
+        <v>17.45149790556542</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.26350479849434</v>
+        <v>17.28821378609434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.29305753452084</v>
+        <v>17.26657433881091</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.19246423721221</v>
+        <v>17.20898763242286</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.03890935923614</v>
+        <v>17.01564104351049</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.97477058093</v>
+        <v>15.99021004030726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.22714683315899</v>
+        <v>16.20685480346265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.17648967785922</v>
+        <v>16.16567365790526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.84760458206005</v>
+        <v>16.83934614536135</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.42532876943497</v>
+        <v>17.43080709208399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.92007958743409</v>
+        <v>16.91570007228293</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.204701714243</v>
+        <v>17.23710718453256</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.4659333225464</v>
+        <v>17.48535052317294</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.58965907625461</v>
+        <v>16.60257616492531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16.63150274212038</v>
+        <v>16.63433616045688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.71139361519826</v>
+        <v>16.72647505975906</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.21069561404514</v>
+        <v>17.22920853438747</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.58141753767123</v>
+        <v>16.58177146971109</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.91122135063309</v>
+        <v>16.90985854996769</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.80950093953611</v>
+        <v>16.81398910624781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.7812999372603</v>
+        <v>17.80482440192847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.00160360141017</v>
+        <v>19.19853710512723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.9585971468155</v>
+        <v>18.07377893620234</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.25466899833737</v>
+        <v>18.32319296935394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.58622375283948</v>
+        <v>18.59697824179284</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.33122632338164</v>
+        <v>17.35548626839181</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.22252658534237</v>
+        <v>17.22817638014822</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.29244538159768</v>
+        <v>17.29586049238246</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.92119803625148</v>
+        <v>17.94518303180012</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.17855670018829</v>
+        <v>16.16193243556894</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.3233292912382</v>
+        <v>16.33181026942861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.21909508424103</v>
+        <v>16.22369288253741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.35728123506368</v>
+        <v>16.37952047880238</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16.9692310380173</v>
+        <v>16.91496871426805</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.45841887814202</v>
+        <v>17.46366015787222</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.37679310465571</v>
+        <v>17.38346453981573</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.29489508298683</v>
+        <v>17.29778531216283</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.586997182565</v>
+        <v>16.56397951670411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16.91458220334496</v>
+        <v>16.92674995070683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.84137458832454</v>
+        <v>16.85508066846961</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.87508739816161</v>
+        <v>16.84406017116278</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.66177602190085</v>
+        <v>16.64285540577497</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.86697167807985</v>
+        <v>16.86674784818222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.93344552396531</v>
+        <v>16.9039602303858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.98155819701808</v>
+        <v>16.97331432192581</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.97136327319537</v>
+        <v>17.92067619884691</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.76383543449845</v>
+        <v>18.80804232158996</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.37616946208961</v>
+        <v>18.48862320115464</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.07272462003404</v>
+        <v>18.12785607532065</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.09410361943333</v>
+        <v>17.06165922376874</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.55084883338645</v>
+        <v>17.55538565473455</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.46420370054237</v>
+        <v>17.46154279002755</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.39063284090713</v>
+        <v>17.33281703704275</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>17.66984393032925</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>17.53061088042138</v>
+        <v>17.53061088042137</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>16.77804922315709</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.22920054349893</v>
+        <v>16.21783536490694</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.35194353082824</v>
+        <v>16.3438807781571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.30614907733139</v>
+        <v>16.33745439408176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.54596215160961</v>
+        <v>16.53927229754406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.22230232453258</v>
+        <v>17.25534252348733</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.42699215738831</v>
+        <v>17.43042059133415</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.42117170027976</v>
+        <v>17.40700239920766</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.3285338063621</v>
+        <v>17.33546682291916</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.64562776837832</v>
+        <v>16.64481596543309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.81371162878652</v>
+        <v>16.81812861544475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.82876982755455</v>
+        <v>16.84183304358562</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.89608859123341</v>
+        <v>16.92379859856746</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.54254572415625</v>
+        <v>16.52953715336525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.66404646463093</v>
+        <v>16.65634425964861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.68353226631985</v>
+        <v>16.68390152719389</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.87265854055461</v>
+        <v>16.88980594807923</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.81001806274439</v>
+        <v>17.77495109125583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.97024097680015</v>
+        <v>18.00906065574717</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.95419264624918</v>
+        <v>17.97939405880298</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.7476208816438</v>
+        <v>17.76069064372026</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.9416177959158</v>
+        <v>16.93191998849738</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.11839882650055</v>
+        <v>17.12416008301145</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.13598927538114</v>
+        <v>17.14172695267903</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.17628829633554</v>
+        <v>17.1861778584389</v>
       </c>
     </row>
     <row r="19">
